--- a/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P14NBC80-SET COLOCACION 4.5-6.5 # 1.xlsx
+++ b/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P14NBC80-SET COLOCACION 4.5-6.5 # 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022\EQUIPOS BODEGA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9641D487-DE7B-4CDF-8EFC-D55E7A5B43BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC4E8C3-C452-4281-93E5-4C8C2FFF94F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>INSUMOS QUIRURGICOS ORTOMACX INQUIORT S.A.</t>
   </si>
@@ -110,12 +110,6 @@
     <t>TARRAJA 6.5MM</t>
   </si>
   <si>
-    <t xml:space="preserve">GUIA DE BROCA DE 3.2/4.5MM </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GUIA DE BROCA DE 3.2/6.5MM </t>
-  </si>
-  <si>
     <t xml:space="preserve">EXTRACTOR HEXAGONAL ANCLAJE RAPIDO  </t>
   </si>
   <si>
@@ -195,6 +189,9 @@
   </si>
   <si>
     <t>ATORNILLADOR ANCLAJE RAPIDO STARDRIVE CON CAMISA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUIA DOBLE DE  BROCA DE 3.2/4.5MM </t>
   </si>
 </sst>
 </file>
@@ -935,8 +932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1164,7 +1161,7 @@
     <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="24"/>
       <c r="C21" s="24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1210,7 +1207,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1234,7 +1231,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1242,7 +1239,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1250,7 +1247,7 @@
         <v>1</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1258,7 +1255,7 @@
         <v>1</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1266,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1274,7 +1271,7 @@
         <v>1</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1282,7 +1279,7 @@
         <v>1</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1290,7 +1287,7 @@
         <v>3</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1298,7 +1295,7 @@
         <v>1</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1306,7 +1303,7 @@
         <v>2</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1314,7 +1311,7 @@
         <v>1</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1322,7 +1319,7 @@
         <v>2</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1330,7 +1327,7 @@
         <v>1</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1338,7 +1335,7 @@
         <v>2</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1346,7 +1343,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1363,7 +1360,7 @@
     <row r="47" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="25"/>
       <c r="C47" s="24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1371,7 +1368,7 @@
         <v>1</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1379,7 +1376,7 @@
         <v>2</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1387,7 +1384,7 @@
         <v>1</v>
       </c>
       <c r="C50" s="22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1395,7 +1392,7 @@
         <v>1</v>
       </c>
       <c r="C51" s="22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1403,7 +1400,7 @@
         <v>1</v>
       </c>
       <c r="C52" s="22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1411,7 +1408,7 @@
         <v>1</v>
       </c>
       <c r="C53" s="22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="54" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1419,7 +1416,7 @@
         <v>1</v>
       </c>
       <c r="C54" s="27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1427,7 +1424,7 @@
         <v>1</v>
       </c>
       <c r="C55" s="22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="56" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1435,7 +1432,7 @@
         <v>1</v>
       </c>
       <c r="C56" s="22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="57" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1443,7 +1440,7 @@
         <v>1</v>
       </c>
       <c r="C57" s="22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="58" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1451,7 +1448,7 @@
         <v>1</v>
       </c>
       <c r="C58" s="22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
